--- a/sputnik/personal/uch/uch199.xlsx
+++ b/sputnik/personal/uch/uch199.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -51,8 +51,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,10 +182,10 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -247,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,10 +279,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +313,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -490,17 +488,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D7" sqref="D4:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -509,8 +507,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -524,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="12">
         <v>43221</v>
       </c>
@@ -536,7 +534,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="12">
         <v>43375</v>
       </c>
@@ -548,7 +546,7 @@
         <v>3151.84</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="12">
         <v>43375</v>
       </c>
@@ -560,7 +558,7 @@
         <v>3151.85</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18" customHeight="1">
       <c r="A6" s="12">
         <v>43376</v>
       </c>
@@ -572,7 +570,7 @@
         <v>478.23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18" customHeight="1">
       <c r="A7" s="12">
         <v>43377</v>
       </c>
@@ -584,7 +582,7 @@
         <v>3151.84</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="17.25" customHeight="1">
       <c r="A8" s="13">
         <v>43586</v>
       </c>
@@ -596,7 +594,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="17.25" customHeight="1">
       <c r="A9" s="13">
         <v>43739</v>
       </c>
@@ -608,7 +606,7 @@
         <v>3107.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="13">
         <v>43739</v>
       </c>
@@ -620,7 +618,7 @@
         <v>3107.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="13">
         <v>43739</v>
       </c>
@@ -632,7 +630,7 @@
         <v>3107.09</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -646,12 +644,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -660,12 +658,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch199.xlsx
+++ b/sputnik/personal/uch/uch199.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,13 +46,16 @@
   </si>
   <si>
     <t>Оплата за пользование инфраструктурой с 01.05.2018 по 30.04.2019 дог.7</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -187,6 +190,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -247,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,9 +283,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,6 +318,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -488,17 +494,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D4:D7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -507,8 +513,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -522,7 +528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>43221</v>
       </c>
@@ -534,7 +540,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43375</v>
       </c>
@@ -546,7 +552,7 @@
         <v>3151.84</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43375</v>
       </c>
@@ -558,7 +564,7 @@
         <v>3151.85</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43376</v>
       </c>
@@ -570,7 +576,7 @@
         <v>478.23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43377</v>
       </c>
@@ -582,7 +588,7 @@
         <v>3151.84</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1">
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43586</v>
       </c>
@@ -594,7 +600,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="17.25" customHeight="1">
+    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43739</v>
       </c>
@@ -606,7 +612,7 @@
         <v>3107.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43739</v>
       </c>
@@ -618,7 +624,7 @@
         <v>3107.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>43739</v>
       </c>
@@ -630,10 +636,16 @@
         <v>3107.09</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>43952</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9">
+        <v>9991.39</v>
+      </c>
       <c r="D12" s="9"/>
     </row>
   </sheetData>
@@ -644,12 +656,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -658,12 +670,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch199.xlsx
+++ b/sputnik/personal/uch/uch199.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -191,6 +191,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -498,10 +501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A13" sqref="A13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -647,6 +650,30 @@
         <v>9991.39</v>
       </c>
       <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>44085</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9">
+        <v>3330.46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>44085</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9">
+        <v>3330.46</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch199.xlsx
+++ b/sputnik/personal/uch/uch199.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -501,10 +501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -673,6 +673,18 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9">
         <v>3330.46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>44105</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9">
+        <v>3330.47</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch199.xlsx
+++ b/sputnik/personal/uch/uch199.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -501,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -686,6 +689,84 @@
       <c r="D15" s="9">
         <v>3330.47</v>
       </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>44317</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="9">
+        <v>11183.89</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch199.xlsx
+++ b/sputnik/personal/uch/uch199.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D27"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -703,16 +706,28 @@
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="14">
+        <v>44469</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9">
+        <v>3727.96</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="14">
+        <v>44469</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9">
+        <v>3727.97</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>

--- a/sputnik/personal/uch/uch199.xlsx
+++ b/sputnik/personal/uch/uch199.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -509,8 +509,8 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -730,10 +730,16 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="14">
+        <v>44470</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9">
+        <v>3727.96</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
